--- a/赛事运营平台/02管理域/04项目评审/Xunao-SSYYZC-同行评审数据分析1.xlsx
+++ b/赛事运营平台/02管理域/04项目评审/Xunao-SSYYZC-同行评审数据分析1.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27660" windowHeight="14360"/>
+    <workbookView windowWidth="32460" windowHeight="14360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="5" r:id="rId1"/>
-    <sheet name="评审数据数据统计" sheetId="3" r:id="rId2"/>
+    <sheet name="评审数据统计" sheetId="3" r:id="rId2"/>
     <sheet name="代码评审统计" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -294,7 +294,7 @@
     <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="43">
+  <fonts count="42">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -418,13 +418,6 @@
       <sz val="10"/>
       <name val="FangSong"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1086,162 +1079,162 @@
     </border>
   </borders>
   <cellStyleXfs count="56">
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0">
+    <xf numFmtId="9" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1608,7 +1601,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>评审数据数据统计!$D$2</c:f>
+              <c:f>评审数据统计!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1697,7 +1690,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>评审数据数据统计!$B$3:$B$9</c:f>
+              <c:f>评审数据统计!$B$3:$B$9</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -1726,7 +1719,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>评审数据数据统计!$D$3:$D$9</c:f>
+              <c:f>评审数据统计!$D$3:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1776,7 +1769,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>评审数据数据统计!$H$2</c:f>
+              <c:f>评审数据统计!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1868,7 +1861,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>评审数据数据统计!$B$3:$B$9</c:f>
+              <c:f>评审数据统计!$B$3:$B$9</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -1897,7 +1890,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>评审数据数据统计!$H$3:$H$9</c:f>
+              <c:f>评审数据统计!$H$3:$H$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="7"/>
@@ -2336,7 +2329,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>评审数据数据统计!$N$2</c:f>
+              <c:f>评审数据统计!$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2425,7 +2418,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>评审数据数据统计!$B$3:$B$9</c:f>
+              <c:f>评审数据统计!$B$3:$B$9</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -2454,7 +2447,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>评审数据数据统计!$N$3:$N$9</c:f>
+              <c:f>评审数据统计!$N$3:$N$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="7"/>
@@ -2504,7 +2497,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>评审数据数据统计!$O$2</c:f>
+              <c:f>评审数据统计!$O$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2596,7 +2589,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>评审数据数据统计!$B$3:$B$9</c:f>
+              <c:f>评审数据统计!$B$3:$B$9</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -2625,7 +2618,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>评审数据数据统计!$O$3:$O$9</c:f>
+              <c:f>评审数据统计!$O$3:$O$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="7"/>
@@ -3274,10 +3267,10 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6</c:v>
@@ -3298,7 +3291,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>3</c:v>
@@ -3565,10 +3558,10 @@
                   <c:v>0.222222222222222</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.666666666666667</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.666666666666667</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.333333333333333</c:v>
@@ -3586,10 +3579,10 @@
                   <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.125</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.2</c:v>
+                  <c:v>0.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1.33333333333333</c:v>
@@ -4554,10 +4547,10 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.25</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1</c:v>
@@ -5229,7 +5222,7 @@
   <sheetPr/>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -5400,8 +5393,8 @@
   <sheetPr/>
   <dimension ref="A1:AD32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.45192307692308" defaultRowHeight="15.2"/>
@@ -6310,8 +6303,8 @@
   <sheetPr/>
   <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:C22"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -6427,14 +6420,14 @@
         <v>52</v>
       </c>
       <c r="D4" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" s="8">
         <v>2</v>
       </c>
       <c r="F4" s="21">
         <f t="shared" ref="F4:F21" si="0">E4/D4</f>
-        <v>0.666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="G4" s="22">
         <v>3</v>
@@ -6466,14 +6459,14 @@
         <v>53</v>
       </c>
       <c r="D5" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E5" s="8">
         <v>2</v>
       </c>
       <c r="F5" s="21">
         <f t="shared" si="0"/>
-        <v>0.666666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="G5" s="22">
         <v>2</v>
@@ -6703,11 +6696,11 @@
         <v>8</v>
       </c>
       <c r="E11" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F11" s="21">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="G11" s="22">
         <v>2</v>
@@ -6728,7 +6721,7 @@
       </c>
       <c r="L11" s="21">
         <f t="shared" si="3"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" ht="17.6" spans="2:12">
@@ -6739,14 +6732,14 @@
         <v>60</v>
       </c>
       <c r="D12" s="8">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E12" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12" s="21">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="G12" s="22">
         <v>3</v>
@@ -6767,7 +6760,7 @@
       </c>
       <c r="L12" s="21">
         <f t="shared" si="3"/>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="13" ht="17.6" spans="2:12">
@@ -7128,15 +7121,15 @@
       <c r="C22" s="11"/>
       <c r="D22" s="12">
         <f>SUM(D3:D21)</f>
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E22" s="12">
         <f>SUM(E3:E21)</f>
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F22" s="23">
         <f>AVERAGEA(F3:F21)</f>
-        <v>0.474039264828738</v>
+        <v>0.477986633249791</v>
       </c>
       <c r="G22" s="24">
         <f>SUM(G3:G21)</f>
@@ -7160,7 +7153,7 @@
       </c>
       <c r="L22" s="23">
         <f>AVERAGEA(L3:L21)</f>
-        <v>0.659649122807017</v>
+        <v>0.725438596491228</v>
       </c>
     </row>
     <row r="41" spans="1:1">
